--- a/docs/uploads/pronósticos.xlsx
+++ b/docs/uploads/pronósticos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>FLATTEN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Valor Real</t>
+          <t>CANTIDAD ANUAL REAL</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Valor Pronosticado</t>
+          <t>CANTIDAD ANUAL PRONOSTICADA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Erro medio cuadrático</t>
+          <t>ERROR MEDIO CUADRÁTICO</t>
         </is>
       </c>
     </row>
@@ -460,41 +460,27 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>1151</v>
       </c>
       <c r="C2" t="n">
-        <v>122.3471400394477</v>
+        <v>701.3199999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>586.0973250092252</v>
+        <v>123969.8240000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>126.4661406969099</v>
+        <v>216.84</v>
       </c>
       <c r="D3" t="n">
-        <v>586.0973250092252</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>90</v>
-      </c>
-      <c r="C4" t="n">
-        <v>120.6995397764629</v>
-      </c>
-      <c r="D4" t="n">
-        <v>586.0973250092252</v>
+        <v>123969.8240000001</v>
       </c>
     </row>
   </sheetData>
